--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Protocolo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1DEDC8-9C05-4604-A3E5-EEF92CCA21FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95960255-64EF-47FE-93E3-E7EE32783AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
   <si>
     <t>Byte 1</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>(0x0FF &amp; 0000XXXXb)</t>
+  </si>
+  <si>
+    <t>FLASH STORE</t>
+  </si>
+  <si>
+    <t>SEND FLAHS</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -802,6 +808,45 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -809,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,6 +953,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,16 +1064,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1361,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,25 +1376,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1378,37 +1436,37 @@
         <v>9</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="81" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1416,27 +1474,33 @@
       <c r="B10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="45" t="s">
         <v>15</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1447,6 +1511,7 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1469,21 +1534,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -1583,21 +1648,21 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="K7" s="63" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="K7" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
@@ -1805,21 +1870,21 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="K21" s="57" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+      <c r="K21" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
@@ -1983,21 +2048,21 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="K31" s="69" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="72"/>
+      <c r="K31" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="71"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
@@ -2161,16 +2226,16 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="34" t="s">

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95960255-64EF-47FE-93E3-E7EE32783AB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59A09B-C1A2-4960-A78B-645BB91EE1C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>Byte 1</t>
   </si>
@@ -53,12 +53,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Calibration MSB</t>
-  </si>
-  <si>
-    <t>Calibration LSB</t>
-  </si>
-  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -350,17 +344,20 @@
     <t>(0x0FF &amp; 0000XXXXb)</t>
   </si>
   <si>
-    <t>FLASH STORE</t>
-  </si>
-  <si>
-    <t>SEND FLAHS</t>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Data MSB</t>
+  </si>
+  <si>
+    <t>Data LSB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +383,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -768,85 +774,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -854,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,128 +890,114 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1360,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,25 +1299,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="C4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1418,90 +1341,89 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83" t="s">
-        <v>108</v>
-      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1519,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:M37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,785 +1456,785 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="B2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="23">
         <v>1</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="24">
         <v>0</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="K7" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="K7" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" s="25">
         <v>1</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="26">
         <v>2</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10" s="26">
         <v>3</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" s="26">
         <v>4</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K12" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" s="26">
         <v>5</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K13" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" s="26">
         <v>6</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L14" s="26">
         <v>7</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="26">
         <v>8</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" s="26">
         <v>9</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <v>10</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K18" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18" s="26">
         <v>11</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K19" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="24">
         <v>12</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="K21" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
+      <c r="B21" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="K21" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L22" s="38">
         <v>0</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K23" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L23" s="37">
         <v>1</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="K24" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L24" s="37">
         <v>0</v>
       </c>
-      <c r="M24" s="30" t="s">
-        <v>72</v>
+      <c r="M24" s="79" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K25" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L25" s="37">
         <v>1</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K26" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L26" s="37">
         <v>0</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K27" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L27" s="37">
         <v>1</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K28" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="37">
         <v>0</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L29" s="39">
         <v>1</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
-      <c r="K31" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
+      <c r="B31" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="K31" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="70"/>
+      <c r="M31" s="71"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L32" s="25">
         <v>0</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="K33" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L33" s="26">
         <v>1</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="K34" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L34" s="37">
         <v>0</v>
       </c>
       <c r="M34" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K35" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L35" s="37">
         <v>1</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K36" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L36" s="37">
         <v>0</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K37" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L37" s="37">
         <v>1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K38" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L38" s="26">
         <v>0</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K39" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L39" s="24">
         <v>1</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="66"/>
+      <c r="B41" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="I43" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="I44" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2350,128 +2272,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59A09B-C1A2-4960-A78B-645BB91EE1C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C8B39-D3A4-4EC8-9E8A-01EF4C1FA368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -890,105 +890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,6 +899,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,25 +1299,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1364,20 +1364,20 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1394,24 +1394,23 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1441,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,21 +1455,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -1570,21 +1569,21 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="K7" s="63" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="K7" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
@@ -1792,21 +1791,21 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="K21" s="57" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="K21" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
@@ -1909,7 +1908,7 @@
       <c r="L24" s="37">
         <v>0</v>
       </c>
-      <c r="M24" s="79" t="s">
+      <c r="M24" s="46" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1970,21 +1969,21 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="K31" s="69" t="s">
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="K31" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="71"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="76"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
@@ -2148,16 +2147,16 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="34" t="s">

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C8B39-D3A4-4EC8-9E8A-01EF4C1FA368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F74A94-0B22-4133-867F-22EC8A4DD0B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
   <si>
     <t>Byte 1</t>
   </si>
@@ -53,15 +53,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>Command</t>
   </si>
   <si>
-    <t>I2C Downstream (Master-to Slave)</t>
-  </si>
-  <si>
     <t>I2C Upstream (Slave-to-Master)</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Protocol Communication</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
@@ -347,10 +338,40 @@
     <t>Read</t>
   </si>
   <si>
-    <t>Data MSB</t>
-  </si>
-  <si>
-    <t>Data LSB</t>
+    <t>Byte 7</t>
+  </si>
+  <si>
+    <t>Byte 8</t>
+  </si>
+  <si>
+    <t>Byte 9</t>
+  </si>
+  <si>
+    <t>Cal MSB</t>
+  </si>
+  <si>
+    <t>Cal LSB</t>
+  </si>
+  <si>
+    <t>Low Cal MSB</t>
+  </si>
+  <si>
+    <t>High Cal MSB</t>
+  </si>
+  <si>
+    <t>Low Cal LSB</t>
+  </si>
+  <si>
+    <t>High Cal LSB</t>
+  </si>
+  <si>
+    <t>Byte 10</t>
+  </si>
+  <si>
+    <t>PROTOCOL COMMUNICATION</t>
+  </si>
+  <si>
+    <t>I2C Downstream (Master-to-Slave)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -470,34 +491,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -781,6 +776,72 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -791,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,109 +866,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,82 +973,109 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1281,155 +1359,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="84"/>
+      <c r="C11" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
+      <c r="H13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="79" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1440,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1455,785 +1605,785 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="15" t="s">
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="23">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>23</v>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="K7" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="K7" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="22" t="s">
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="24">
+        <v>3</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-      <c r="M8" s="29" t="s">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="24">
+        <v>4</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="26">
-        <v>2</v>
-      </c>
-      <c r="M9" s="30" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="24">
+        <v>5</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="26">
-        <v>3</v>
-      </c>
-      <c r="M10" s="30" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="24">
+        <v>6</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="26">
-        <v>4</v>
-      </c>
-      <c r="M11" s="30" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="24">
+        <v>7</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="26">
-        <v>5</v>
-      </c>
-      <c r="M12" s="30" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="24">
+        <v>8</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="26">
-        <v>6</v>
-      </c>
-      <c r="M13" s="30" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="24">
+        <v>9</v>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="26">
-        <v>7</v>
-      </c>
-      <c r="M14" s="30" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="24">
+        <v>10</v>
+      </c>
+      <c r="M17" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="26">
-        <v>8</v>
-      </c>
-      <c r="M15" s="30" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="24">
+        <v>11</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="26">
-        <v>9</v>
-      </c>
-      <c r="M16" s="30" t="s">
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="22">
+        <v>12</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="26">
-        <v>10</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="26">
-        <v>11</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="24">
-        <v>12</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
+      <c r="B21" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="K21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="36">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="35">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="35">
+        <v>1</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="35">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="37">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="L22" s="38">
-        <v>0</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="37">
-        <v>1</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="37">
-        <v>0</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="37">
-        <v>1</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="37">
-        <v>1</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="37">
-        <v>0</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="39">
-        <v>1</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="K31" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
+      <c r="B31" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="K31" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="24">
+        <v>1</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="35">
+        <v>1</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="22">
+        <v>1</v>
+      </c>
+      <c r="M39" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="L32" s="25">
-        <v>0</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="26">
-        <v>1</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="37">
-        <v>1</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L36" s="37">
-        <v>0</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L37" s="37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="26">
-        <v>0</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="24">
-        <v>1</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
+      <c r="B41" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2271,128 +2421,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F74A94-0B22-4133-867F-22EC8A4DD0B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1B4F5-DF3B-4014-AD31-89CB93A789A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +455,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -769,36 +775,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -825,15 +809,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -843,6 +818,30 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -852,9 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -946,138 +945,135 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1359,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,67 +1377,70 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="85" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="78" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1457,96 +1456,93 @@
       <c r="G8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="74" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+      <c r="C10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="81"/>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
-      <c r="C11" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="76"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1565,21 +1561,25 @@
       <c r="I13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="74" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C6:L6"/>
+    <mergeCell ref="D12:L12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,21 +1605,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="K2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -1719,21 +1719,21 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
-      <c r="K7" s="62" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="K7" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
@@ -1941,21 +1941,21 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="K21" s="56" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="K21" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
@@ -2058,7 +2058,7 @@
       <c r="L24" s="35">
         <v>0</v>
       </c>
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="42" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2119,21 +2119,21 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
-      <c r="K31" s="68" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="K31" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
@@ -2297,16 +2297,16 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="61"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C8B39-D3A4-4EC8-9E8A-01EF4C1FA368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1B4F5-DF3B-4014-AD31-89CB93A789A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
   <si>
     <t>Byte 1</t>
   </si>
@@ -53,15 +53,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>Command</t>
   </si>
   <si>
-    <t>I2C Downstream (Master-to Slave)</t>
-  </si>
-  <si>
     <t>I2C Upstream (Slave-to-Master)</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Protocol Communication</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
@@ -347,10 +338,40 @@
     <t>Read</t>
   </si>
   <si>
-    <t>Data MSB</t>
-  </si>
-  <si>
-    <t>Data LSB</t>
+    <t>Byte 7</t>
+  </si>
+  <si>
+    <t>Byte 8</t>
+  </si>
+  <si>
+    <t>Byte 9</t>
+  </si>
+  <si>
+    <t>Cal MSB</t>
+  </si>
+  <si>
+    <t>Cal LSB</t>
+  </si>
+  <si>
+    <t>Low Cal MSB</t>
+  </si>
+  <si>
+    <t>High Cal MSB</t>
+  </si>
+  <si>
+    <t>Low Cal LSB</t>
+  </si>
+  <si>
+    <t>High Cal LSB</t>
+  </si>
+  <si>
+    <t>Byte 10</t>
+  </si>
+  <si>
+    <t>PROTOCOL COMMUNICATION</t>
+  </si>
+  <si>
+    <t>I2C Downstream (Master-to-Slave)</t>
   </si>
 </sst>
 </file>
@@ -397,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +455,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -470,34 +497,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -774,14 +775,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -791,9 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -805,201 +865,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1281,155 +1355,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+      <c r="C10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="81"/>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="84"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C2:H2"/>
+  <mergeCells count="4">
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="D12:L12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1440,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,785 +1605,785 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="K2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="15" t="s">
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="23">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>23</v>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="K7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="K7" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="22" t="s">
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="24">
+        <v>3</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="25">
-        <v>1</v>
-      </c>
-      <c r="M8" s="29" t="s">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="24">
+        <v>4</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="26">
-        <v>2</v>
-      </c>
-      <c r="M9" s="30" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="24">
+        <v>5</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="26">
-        <v>3</v>
-      </c>
-      <c r="M10" s="30" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="24">
+        <v>6</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="26">
-        <v>4</v>
-      </c>
-      <c r="M11" s="30" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="24">
+        <v>7</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="26">
-        <v>5</v>
-      </c>
-      <c r="M12" s="30" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="24">
+        <v>8</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="26">
-        <v>6</v>
-      </c>
-      <c r="M13" s="30" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="24">
+        <v>9</v>
+      </c>
+      <c r="M16" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="26">
-        <v>7</v>
-      </c>
-      <c r="M14" s="30" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="24">
+        <v>10</v>
+      </c>
+      <c r="M17" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="26">
-        <v>8</v>
-      </c>
-      <c r="M15" s="30" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="24">
+        <v>11</v>
+      </c>
+      <c r="M18" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="26">
-        <v>9</v>
-      </c>
-      <c r="M16" s="30" t="s">
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="22">
+        <v>12</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="26">
-        <v>10</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="26">
-        <v>11</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="24">
-        <v>12</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="K21" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
+      <c r="B21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="K21" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="36">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="35">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="35">
+        <v>1</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="35">
+        <v>0</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="35">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="37">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="L22" s="38">
-        <v>0</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="37">
-        <v>1</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="37">
-        <v>0</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="37">
-        <v>1</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="37">
-        <v>1</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="37">
-        <v>0</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="39">
-        <v>1</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
-      <c r="K31" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
+      <c r="B31" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="K31" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="24">
+        <v>1</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="35">
+        <v>1</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="22">
+        <v>1</v>
+      </c>
+      <c r="M39" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="L32" s="25">
-        <v>0</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="26">
-        <v>1</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="37">
-        <v>0</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="37">
-        <v>1</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L36" s="37">
-        <v>0</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L37" s="37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="26">
-        <v>0</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="24">
-        <v>1</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
+      <c r="B41" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="G43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2271,128 +2421,128 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
+++ b/Docs/Protocolo/Sensor Board V1.0 Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hardware 1\Desktop\Meu_Sensor_Board\Sensor-Board\Docs\Protocolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1B4F5-DF3B-4014-AD31-89CB93A789A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CECEDD2-B7B6-4537-8D86-D67BBE4F2E75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,24 +347,6 @@
     <t>Byte 9</t>
   </si>
   <si>
-    <t>Cal MSB</t>
-  </si>
-  <si>
-    <t>Cal LSB</t>
-  </si>
-  <si>
-    <t>Low Cal MSB</t>
-  </si>
-  <si>
-    <t>High Cal MSB</t>
-  </si>
-  <si>
-    <t>Low Cal LSB</t>
-  </si>
-  <si>
-    <t>High Cal LSB</t>
-  </si>
-  <si>
     <t>Byte 10</t>
   </si>
   <si>
@@ -372,6 +354,24 @@
   </si>
   <si>
     <t>I2C Downstream (Master-to-Slave)</t>
+  </si>
+  <si>
+    <t>Low Cal (MSB)</t>
+  </si>
+  <si>
+    <t>Low Cal (LSB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cal (MSB)</t>
+  </si>
+  <si>
+    <t>Cal (LSB)</t>
+  </si>
+  <si>
+    <t>High Cal (MSB)</t>
+  </si>
+  <si>
+    <t>High Cal (LSB)</t>
   </si>
 </sst>
 </file>
@@ -949,6 +949,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,6 +984,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,41 +1074,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1358,7 +1358,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,74 +1367,76 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
+      <c r="C3" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="C6" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="78" t="s">
-        <v>112</v>
+      <c r="L7" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,74 +1453,74 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="78" t="s">
-        <v>112</v>
+      <c r="L11" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1528,21 +1530,21 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1550,24 +1552,24 @@
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="44" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1605,21 +1607,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="K2" s="49" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="K2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -1719,21 +1721,21 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
-      <c r="K7" s="61" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="K7" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
@@ -1941,21 +1943,21 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="K21" s="55" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="K21" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
@@ -2119,21 +2121,21 @@
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
-      <c r="K31" s="67" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="K31" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
@@ -2297,16 +2299,16 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="60"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">
